--- a/data/trans_dic/P21_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 31,03</t>
+          <t>22,38; 30,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,8</t>
+          <t>15,94; 25,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,62; 30,86</t>
+          <t>24,39; 30,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,33; 27,13</t>
+          <t>20,41; 26,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,55</t>
+          <t>24,34; 29,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 24,13</t>
+          <t>19,25; 24,75</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,81; 27,86</t>
+          <t>19,22; 27,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 20,53</t>
+          <t>12,14; 20,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 29,37</t>
+          <t>21,94; 29,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 25,76</t>
+          <t>18,6; 25,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,07</t>
+          <t>21,59; 27,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 21,63</t>
+          <t>16,35; 21,88</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>20,09%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,59; 32,29</t>
+          <t>15,89; 31,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 32,82</t>
+          <t>11,87; 34,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 27,98</t>
+          <t>15,23; 28,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,42; 27,14</t>
+          <t>14,03; 27,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 28,38</t>
+          <t>17,67; 28,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 27,85</t>
+          <t>14,62; 27,61</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,84; 27,58</t>
+          <t>21,65; 27,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,94</t>
+          <t>15,49; 21,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 28,17</t>
+          <t>23,72; 28,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,44</t>
+          <t>20,41; 24,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,69; 27,31</t>
+          <t>23,54; 27,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,91</t>
+          <t>18,72; 22,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>427390</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>322980</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>492924</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>424293</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>920314</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>747273</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>366986; 506383</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>263419; 414708</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>436844; 547953</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>367688; 484064</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>835188; 1011491</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>664939; 854892</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>319188</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>213505</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>358060</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>305409</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>677248</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>518914</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>266525; 384772</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>166320; 286976</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>309244; 414314</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>258422; 352458</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>603620; 758652</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>451185; 603728</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99317</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>83204</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>87981</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>187298</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>166089</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67170; 134450</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49595; 143351</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62716; 115960</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57379; 112448</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>147472; 235225</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>120898; 228342</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>707.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>845895</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>619690</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>938964</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>812586</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1784860</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1432276</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>746943; 943357</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>533084; 739833</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>856944; 1021534</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>734731; 898320</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1662789; 1913826</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1317747; 1575349</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>